--- a/media/user.xlsx
+++ b/media/user.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">current_user</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin</t>
   </si>
 </sst>
 </file>
@@ -145,10 +148,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,7 +161,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
